--- a/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Loft'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Loft'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.333261108437447</v>
+        <v>0.33324189936155929</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.29905005540047302</v>
+        <v>0.29907304976208648</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.26644512516169339</v>
+        <v>0.26643288327587911</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.24089967530020481</v>
+        <v>0.24090775000294501</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.2069606772999576</v>
+        <v>0.2069647794954185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.19109953204304581</v>
+        <v>0.19113415409623599</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0.17407421173862869</v>
+        <v>0.17408838284515191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>0.16401686306847499</v>
+        <v>0.16397567935202501</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>0.1618125001008269</v>
+        <v>0.1618078629795684</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>0.15953426594041109</v>
+        <v>0.1595344300989299</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>0.1472784116590741</v>
+        <v>0.14727835427054239</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>0.13371359052506429</v>
+        <v>0.13371373266564329</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0.1055408539312126</v>
+        <v>0.1054918330777134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>9.520807962999786E-2</v>
+        <v>9.5236168020353368E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>7.3997589747672579E-2</v>
+        <v>7.3937237678549414E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>5.1813670429044917E-2</v>
+        <v>5.183037673030385E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>3.7229680612722853E-2</v>
+        <v>3.7288464994765479E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>3.2841822645695802E-2</v>
+        <v>3.2862865234106357E-2</v>
       </c>
     </row>
   </sheetData>
